--- a/polygon_chart/assets/excel/test.xlsx
+++ b/polygon_chart/assets/excel/test.xlsx
@@ -11,21 +11,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>This is the content of the excel file</t>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>content input1</t>
+  </si>
+  <si>
+    <t>content input 2content input 2content input 2content input 2</t>
+  </si>
+  <si>
+    <t>content inout 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -53,11 +68,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -282,33 +300,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
